--- a/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Cap nhat so do tuyen/CF0144_BAChecklistERP.xlsx
+++ b/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Cap nhat so do tuyen/CF0144_BAChecklistERP.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" tabRatio="653" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" tabRatio="653" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Layout" sheetId="1" r:id="rId1"/>
@@ -161,7 +161,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="118">
   <si>
     <t>STT</t>
   </si>
@@ -838,6 +838,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -878,27 +899,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1550,16 +1550,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="30" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
       <c r="J1" s="2" t="s">
         <v>25</v>
       </c>
@@ -1568,28 +1568,28 @@
       </c>
     </row>
     <row r="2" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
       <c r="J2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:23" s="1" customFormat="1" ht="15.75">
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
       <c r="J3" s="2" t="s">
         <v>27</v>
       </c>
@@ -1631,94 +1631,94 @@
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:23">
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="D7" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="36" t="s">
+      <c r="E7" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="36" t="s">
+      <c r="F7" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="48" t="s">
+      <c r="G7" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="48"/>
-      <c r="I7" s="42" t="s">
+      <c r="H7" s="34"/>
+      <c r="I7" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="43"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="42" t="s">
+      <c r="J7" s="29"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="M7" s="43"/>
-      <c r="N7" s="44"/>
-      <c r="O7" s="42" t="s">
+      <c r="M7" s="29"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="44"/>
-      <c r="R7" s="42" t="s">
+      <c r="P7" s="29"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="S7" s="43"/>
-      <c r="T7" s="44"/>
-      <c r="U7" s="42" t="s">
+      <c r="S7" s="29"/>
+      <c r="T7" s="30"/>
+      <c r="U7" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="V7" s="43"/>
-      <c r="W7" s="44"/>
+      <c r="V7" s="29"/>
+      <c r="W7" s="30"/>
     </row>
     <row r="8" spans="1:23">
-      <c r="B8" s="37"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="45" t="s">
+      <c r="B8" s="44"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="H8" s="47"/>
-      <c r="I8" s="45" t="s">
+      <c r="H8" s="33"/>
+      <c r="I8" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="46"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="45" t="s">
+      <c r="J8" s="32"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="M8" s="46"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="45" t="s">
+      <c r="M8" s="32"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="P8" s="46"/>
-      <c r="Q8" s="47"/>
-      <c r="R8" s="45" t="s">
+      <c r="P8" s="32"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="S8" s="46"/>
-      <c r="T8" s="47"/>
-      <c r="U8" s="45" t="s">
+      <c r="S8" s="32"/>
+      <c r="T8" s="33"/>
+      <c r="U8" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="V8" s="46"/>
-      <c r="W8" s="47"/>
+      <c r="V8" s="32"/>
+      <c r="W8" s="33"/>
     </row>
     <row r="9" spans="1:23" ht="28.5">
       <c r="A9" s="6"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
       <c r="G9" s="7" t="s">
         <v>17</v>
       </c>
@@ -1778,7 +1778,7 @@
       <c r="C10" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="35" t="s">
         <v>34</v>
       </c>
       <c r="E10" s="18" t="s">
@@ -1812,7 +1812,7 @@
       <c r="C11" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D11" s="28"/>
+      <c r="D11" s="35"/>
       <c r="E11" s="19" t="s">
         <v>36</v>
       </c>
@@ -1844,7 +1844,7 @@
       <c r="C12" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D12" s="28"/>
+      <c r="D12" s="35"/>
       <c r="E12" s="19" t="s">
         <v>37</v>
       </c>
@@ -1876,7 +1876,7 @@
       <c r="C13" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D13" s="28"/>
+      <c r="D13" s="35"/>
       <c r="E13" s="18" t="s">
         <v>39</v>
       </c>
@@ -1908,7 +1908,7 @@
       <c r="C14" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="D14" s="28"/>
+      <c r="D14" s="35"/>
       <c r="E14" s="18" t="s">
         <v>35</v>
       </c>
@@ -1938,7 +1938,7 @@
       <c r="C15" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D15" s="28"/>
+      <c r="D15" s="35"/>
       <c r="E15" s="20" t="s">
         <v>63</v>
       </c>
@@ -2769,6 +2769,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="D10:D15"/>
+    <mergeCell ref="B1:D3"/>
+    <mergeCell ref="E1:I3"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="C7:C9"/>
     <mergeCell ref="U7:W7"/>
     <mergeCell ref="U8:W8"/>
     <mergeCell ref="O7:Q7"/>
@@ -2781,14 +2789,6 @@
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="I8:K8"/>
     <mergeCell ref="L8:N8"/>
-    <mergeCell ref="D10:D15"/>
-    <mergeCell ref="B1:D3"/>
-    <mergeCell ref="E1:I3"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="C7:C9"/>
   </mergeCells>
   <conditionalFormatting sqref="G10:G40 I10:J40 L10:M40 O10:P40 R10:S40 U10:V40">
     <cfRule type="expression" dxfId="13" priority="15">
@@ -2826,8 +2826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W43"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A19" zoomScaleNormal="55" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="55" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2854,16 +2854,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="30" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
       <c r="J1" s="2" t="s">
         <v>25</v>
       </c>
@@ -2872,28 +2872,28 @@
       </c>
     </row>
     <row r="2" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
       <c r="J2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
       <c r="J3" s="2" t="s">
         <v>27</v>
       </c>
@@ -2933,94 +2933,94 @@
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:23">
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="D7" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="36" t="s">
+      <c r="E7" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="36" t="s">
+      <c r="F7" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="48" t="s">
+      <c r="G7" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="48"/>
-      <c r="I7" s="42" t="s">
+      <c r="H7" s="34"/>
+      <c r="I7" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="43"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="42" t="s">
+      <c r="J7" s="29"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="M7" s="43"/>
-      <c r="N7" s="44"/>
-      <c r="O7" s="42" t="s">
+      <c r="M7" s="29"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="44"/>
-      <c r="R7" s="42" t="s">
+      <c r="P7" s="29"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="S7" s="43"/>
-      <c r="T7" s="44"/>
-      <c r="U7" s="42" t="s">
+      <c r="S7" s="29"/>
+      <c r="T7" s="30"/>
+      <c r="U7" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="V7" s="43"/>
-      <c r="W7" s="44"/>
+      <c r="V7" s="29"/>
+      <c r="W7" s="30"/>
     </row>
     <row r="8" spans="1:23">
-      <c r="B8" s="37"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="45" t="s">
+      <c r="B8" s="44"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="H8" s="47"/>
-      <c r="I8" s="45" t="s">
+      <c r="H8" s="33"/>
+      <c r="I8" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="46"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="45" t="s">
+      <c r="J8" s="32"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="M8" s="46"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="45" t="s">
+      <c r="M8" s="32"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="P8" s="46"/>
-      <c r="Q8" s="47"/>
-      <c r="R8" s="45" t="s">
+      <c r="P8" s="32"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="S8" s="46"/>
-      <c r="T8" s="47"/>
-      <c r="U8" s="45" t="s">
+      <c r="S8" s="32"/>
+      <c r="T8" s="33"/>
+      <c r="U8" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="V8" s="46"/>
-      <c r="W8" s="47"/>
+      <c r="V8" s="32"/>
+      <c r="W8" s="33"/>
     </row>
     <row r="9" spans="1:23" ht="28.5">
       <c r="A9" s="6"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
       <c r="G9" s="7" t="s">
         <v>17</v>
       </c>
@@ -3151,7 +3151,9 @@
         <v>87</v>
       </c>
       <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
+      <c r="G12" s="11" t="s">
+        <v>111</v>
+      </c>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
@@ -3181,7 +3183,9 @@
         <v>88</v>
       </c>
       <c r="F13" s="13"/>
-      <c r="G13" s="11"/>
+      <c r="G13" s="11" t="s">
+        <v>111</v>
+      </c>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
@@ -3209,7 +3213,9 @@
         <v>103</v>
       </c>
       <c r="F14" s="13"/>
-      <c r="G14" s="11"/>
+      <c r="G14" s="11" t="s">
+        <v>111</v>
+      </c>
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
       <c r="J14" s="11"/>
@@ -3267,7 +3273,9 @@
         <v>40</v>
       </c>
       <c r="F16" s="13"/>
-      <c r="G16" s="11"/>
+      <c r="G16" s="11" t="s">
+        <v>111</v>
+      </c>
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
       <c r="J16" s="11"/>
@@ -3297,7 +3305,9 @@
         <v>20</v>
       </c>
       <c r="F17" s="13"/>
-      <c r="G17" s="11"/>
+      <c r="G17" s="11" t="s">
+        <v>111</v>
+      </c>
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
       <c r="J17" s="11"/>
@@ -4081,15 +4091,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B1:D3"/>
-    <mergeCell ref="E1:I3"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="C7:C9"/>
     <mergeCell ref="D11:D21"/>
     <mergeCell ref="L7:N7"/>
     <mergeCell ref="O7:Q7"/>
@@ -4101,6 +4102,15 @@
     <mergeCell ref="O8:Q8"/>
     <mergeCell ref="R8:T8"/>
     <mergeCell ref="U8:W8"/>
+    <mergeCell ref="B1:D3"/>
+    <mergeCell ref="E1:I3"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="C7:C9"/>
   </mergeCells>
   <conditionalFormatting sqref="G10:G41 I10:J41 L10:M41 O10:P41 R10:S41 U10:V41">
     <cfRule type="expression" dxfId="9" priority="4">
@@ -4136,8 +4146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W45"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A34" zoomScale="96" zoomScaleNormal="70" zoomScaleSheetLayoutView="96" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScale="96" zoomScaleNormal="70" zoomScaleSheetLayoutView="96" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4164,16 +4174,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="30" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
       <c r="J1" s="2" t="s">
         <v>25</v>
       </c>
@@ -4182,28 +4192,28 @@
       </c>
     </row>
     <row r="2" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
       <c r="J2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
       <c r="J3" s="2" t="s">
         <v>27</v>
       </c>
@@ -4243,94 +4253,94 @@
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:23">
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="D7" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="36" t="s">
+      <c r="E7" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="36" t="s">
+      <c r="F7" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="48" t="s">
+      <c r="G7" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="48"/>
-      <c r="I7" s="42" t="s">
+      <c r="H7" s="34"/>
+      <c r="I7" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="43"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="42" t="s">
+      <c r="J7" s="29"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="M7" s="43"/>
-      <c r="N7" s="44"/>
-      <c r="O7" s="42" t="s">
+      <c r="M7" s="29"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="44"/>
-      <c r="R7" s="42" t="s">
+      <c r="P7" s="29"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="S7" s="43"/>
-      <c r="T7" s="44"/>
-      <c r="U7" s="42" t="s">
+      <c r="S7" s="29"/>
+      <c r="T7" s="30"/>
+      <c r="U7" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="V7" s="43"/>
-      <c r="W7" s="44"/>
+      <c r="V7" s="29"/>
+      <c r="W7" s="30"/>
     </row>
     <row r="8" spans="1:23">
-      <c r="B8" s="37"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="45" t="s">
+      <c r="B8" s="44"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="H8" s="47"/>
-      <c r="I8" s="45" t="s">
+      <c r="H8" s="33"/>
+      <c r="I8" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="46"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="45" t="s">
+      <c r="J8" s="32"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="M8" s="46"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="45" t="s">
+      <c r="M8" s="32"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="P8" s="46"/>
-      <c r="Q8" s="47"/>
-      <c r="R8" s="45" t="s">
+      <c r="P8" s="32"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="S8" s="46"/>
-      <c r="T8" s="47"/>
-      <c r="U8" s="45" t="s">
+      <c r="S8" s="32"/>
+      <c r="T8" s="33"/>
+      <c r="U8" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="V8" s="46"/>
-      <c r="W8" s="47"/>
+      <c r="V8" s="32"/>
+      <c r="W8" s="33"/>
     </row>
     <row r="9" spans="1:23" ht="28.5">
       <c r="A9" s="6"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
       <c r="G9" s="7" t="s">
         <v>17</v>
       </c>
@@ -4461,9 +4471,7 @@
         <v>56</v>
       </c>
       <c r="F12" s="11"/>
-      <c r="G12" s="11" t="s">
-        <v>111</v>
-      </c>
+      <c r="G12" s="11"/>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
@@ -4721,7 +4729,9 @@
         <v>97</v>
       </c>
       <c r="F20" s="13"/>
-      <c r="G20" s="11"/>
+      <c r="G20" s="11" t="s">
+        <v>111</v>
+      </c>
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
       <c r="J20" s="11"/>
@@ -5457,21 +5467,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="D25:D31"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="B1:D3"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E1:I3"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="C7:C9"/>
     <mergeCell ref="U7:W7"/>
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="I8:K8"/>
@@ -5482,6 +5477,21 @@
     <mergeCell ref="L7:N7"/>
     <mergeCell ref="O7:Q7"/>
     <mergeCell ref="R7:T7"/>
+    <mergeCell ref="E1:I3"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="D25:D31"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="B1:D3"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D19:D20"/>
   </mergeCells>
   <conditionalFormatting sqref="G10:G43 L10:M43 O10:P43 R10:S43 U10:V43 I10:J43">
     <cfRule type="expression" dxfId="6" priority="4">
@@ -5517,7 +5527,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V44"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="C10" zoomScale="96" zoomScaleNormal="100" zoomScaleSheetLayoutView="96" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="C1" zoomScale="96" zoomScaleNormal="100" zoomScaleSheetLayoutView="96" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -5544,15 +5554,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="30" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
       <c r="I1" s="2" t="s">
         <v>25</v>
       </c>
@@ -5561,26 +5571,26 @@
       </c>
     </row>
     <row r="2" spans="1:22" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
       <c r="I2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:22" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
       <c r="I3" s="2" t="s">
         <v>27</v>
       </c>
@@ -5617,89 +5627,89 @@
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:22">
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="D7" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="36" t="s">
+      <c r="E7" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="48" t="s">
+      <c r="F7" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="48"/>
-      <c r="H7" s="42" t="s">
+      <c r="G7" s="34"/>
+      <c r="H7" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="43"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="42" t="s">
+      <c r="I7" s="29"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="L7" s="43"/>
-      <c r="M7" s="44"/>
-      <c r="N7" s="42" t="s">
+      <c r="L7" s="29"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="O7" s="43"/>
-      <c r="P7" s="44"/>
-      <c r="Q7" s="42" t="s">
+      <c r="O7" s="29"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="R7" s="43"/>
-      <c r="S7" s="44"/>
-      <c r="T7" s="42" t="s">
+      <c r="R7" s="29"/>
+      <c r="S7" s="30"/>
+      <c r="T7" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="U7" s="43"/>
-      <c r="V7" s="44"/>
+      <c r="U7" s="29"/>
+      <c r="V7" s="30"/>
     </row>
     <row r="8" spans="1:22">
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="45" t="s">
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="47"/>
-      <c r="H8" s="45" t="s">
+      <c r="G8" s="33"/>
+      <c r="H8" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="46"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="45" t="s">
+      <c r="I8" s="32"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="L8" s="46"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="45" t="s">
+      <c r="L8" s="32"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="O8" s="46"/>
-      <c r="P8" s="47"/>
-      <c r="Q8" s="45" t="s">
+      <c r="O8" s="32"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="R8" s="46"/>
-      <c r="S8" s="47"/>
-      <c r="T8" s="45" t="s">
+      <c r="R8" s="32"/>
+      <c r="S8" s="33"/>
+      <c r="T8" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="U8" s="46"/>
-      <c r="V8" s="47"/>
+      <c r="U8" s="32"/>
+      <c r="V8" s="33"/>
     </row>
     <row r="9" spans="1:22" ht="28.5">
       <c r="A9" s="6"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
       <c r="F9" s="7" t="s">
         <v>17</v>
       </c>
@@ -6642,15 +6652,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="C10:C16"/>
-    <mergeCell ref="B1:C3"/>
-    <mergeCell ref="D1:H3"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:J7"/>
     <mergeCell ref="K7:M7"/>
     <mergeCell ref="N7:P7"/>
     <mergeCell ref="Q7:S7"/>
@@ -6661,6 +6662,15 @@
     <mergeCell ref="N8:P8"/>
     <mergeCell ref="Q8:S8"/>
     <mergeCell ref="T8:V8"/>
+    <mergeCell ref="C10:C16"/>
+    <mergeCell ref="B1:C3"/>
+    <mergeCell ref="D1:H3"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:J7"/>
   </mergeCells>
   <conditionalFormatting sqref="F10:F40 H10:I40 K10:L40 N10:O40 Q10:R40 T10:U40">
     <cfRule type="expression" dxfId="3" priority="4">
